--- a/crewai_ticket_agents/results.xlsx
+++ b/crewai_ticket_agents/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,22 +451,19 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ticket</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>html_email</t>
+          <t>status</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>T0001</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>John Carter</t>
+          <t>John Smith</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -476,75 +473,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>My internet has been extremely slow for two days. Please check.</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>```html
-&lt;html&gt;
-    &lt;body&gt;
-        &lt;div style="font-family: Arial, sans-serif; padding: 20px; color: #333;"&gt;
-            &lt;h2 style="color: #0056b3;"&gt;Support Ticket Update&lt;/h2&gt;
-            &lt;p&gt;Dear [Customer's Name],&lt;/p&gt;
-            &lt;p&gt;Thank you for reaching out to us regarding your internet connectivity issues. I understand how frustrating it can be to experience slow internet, especially over the past two days.&lt;/p&gt;
-            &lt;p&gt;I want to assure you that we take these matters seriously and I will help get this resolved as quickly as possible. I have already initiated a check on our end to diagnose any potential issues affecting your service. In the meantime, please try the following troubleshooting steps:&lt;/p&gt;
-            &lt;ol&gt;
-                &lt;li&gt;Restart your modem and router by unplugging them from the power source, waiting for about 30 seconds, and plugging them back in.&lt;/li&gt;
-                &lt;li&gt;Ensure that all cables are securely connected and not damaged.&lt;/li&gt;
-                &lt;li&gt;If you are using Wi-Fi, try connecting your device directly to the router using an Ethernet cable to see if this improves the connection.&lt;/li&gt;
-                &lt;li&gt;Check if there are any large downloads or devices connected to your network that could be utilizing bandwidth.&lt;/li&gt;
-            &lt;/ol&gt;
-            &lt;p&gt;While I work on resolving your issue, please feel free to reply to this email or call us at [Customer Service Phone Number] if you have any questions or need further assistance.&lt;/p&gt;
-            &lt;p&gt;Thank you for your patience, and I apologize for any inconvenience this may be causing you. I will keep you updated with my findings.&lt;/p&gt;
-            &lt;p&gt;Best regards,&lt;br&gt;
-            [Your Name]&lt;br&gt;
-            [Your Position]&lt;br&gt;
-            [Company Name]&lt;br&gt;
-            [Contact Information]&lt;/p&gt;
-            &lt;h2 style="color: #0056b3;"&gt;Escalation Report for Internal Review&lt;/h2&gt;
-            &lt;p&gt;&lt;strong&gt;Customer Information:&lt;/strong&gt;&lt;br&gt;
-            Name: [Customer's Name]&lt;br&gt;
-            Contact Information: [Customer's Email/Phone Number]&lt;/p&gt;
-            &lt;p&gt;&lt;strong&gt;Ticket Details:&lt;/strong&gt;&lt;br&gt;
-            Category: Internet Connectivity Issues&lt;br&gt;
-            Priority Level: High&lt;br&gt;
-            Issue Reported: Internet has been extremely slow for the last two days&lt;/p&gt;
-            &lt;p&gt;&lt;strong&gt;Troubleshooting Steps Attempted:&lt;/strong&gt;&lt;/p&gt;
-            &lt;ol&gt;
-                &lt;li&gt;Suggested restarting modem and router.&lt;/li&gt;
-                &lt;li&gt;Instructed customer to check all cable connections for security and damage.&lt;/li&gt;
-                &lt;li&gt;Advised connecting device via Ethernet to isolate Wi-Fi issues.&lt;/li&gt;
-                &lt;li&gt;Asked customer to monitor for bandwidth-heavy applications that may be affecting speeds.&lt;/li&gt;
-            &lt;/ol&gt;
-            &lt;p&gt;&lt;strong&gt;Current Status:&lt;/strong&gt;&lt;br&gt;
-            Customer expressed urgent need for resolution due to significant impact on their internet usage.&lt;/p&gt;
-            &lt;p&gt;&lt;strong&gt;Next Steps for Escalation:&lt;/strong&gt;&lt;br&gt;
-            Recommend escalation to Tier 2 support for deeper diagnostics and potential service intervention.&lt;br&gt;
-            Consider whether customer has the necessary equipment or account settings that could be contributing to the issue.&lt;/p&gt;
-            &lt;p&gt;&lt;strong&gt;Notes for Agent:&lt;/strong&gt;&lt;br&gt;
-            Customer has been experiencing issues for two consecutive days, which heightens the urgency of this ticket.&lt;br&gt;
-            Maintain regular communication with the customer to keep them informed during the resolution process.&lt;br&gt;
-            Check if there are any known outages or maintenance activities in the area that may be affecting service quality.&lt;/p&gt;
-            &lt;p&gt;&lt;strong&gt;Prepared by:&lt;/strong&gt;&lt;br&gt;
-            [Your Name]&lt;br&gt;
-            [Your Position]&lt;br&gt;
-            [Date]&lt;br&gt;
-            [Company Name]&lt;/p&gt;
-        &lt;/div&gt;
-    &lt;/body&gt;
-&lt;/html&gt;
-```</t>
+          <t>Email Sent</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>T0002</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sarah Wilson</t>
+          <t>Emma Johnson</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -554,58 +495,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>I was charged twice for my monthly bill.</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>```html
-&lt;html&gt;
-  &lt;body&gt;
-    &lt;h2&gt;Customer Support - Billing Issue Resolution&lt;/h2&gt;
-    &lt;div&gt;
-      &lt;p&gt;Dear [Customer's Name],&lt;/p&gt;
-      &lt;p&gt;Thank you for reaching out to us regarding the duplicate charge on your monthly bill. We understand how concerning this issue can be, and we are here to help you resolve it as quickly as possible.&lt;/p&gt;
-      &lt;p&gt;To investigate this matter further, we kindly ask you to provide us with the following information:&lt;/p&gt;
-      &lt;ul&gt;
-        &lt;li&gt;The date of the charges&lt;/li&gt;
-        &lt;li&gt;The payment method used for each charge&lt;/li&gt;
-        &lt;li&gt;Any reference number associated with the transactions, if available&lt;/li&gt;
-      &lt;/ul&gt;
-      &lt;p&gt;Once we receive this information, our billing department will conduct a thorough review of your account. If a duplicate charge is confirmed, we will issue a refund promptly.&lt;/p&gt;
-      &lt;p&gt;We appreciate your patience and understanding as we work to resolve this issue. Your satisfaction is our top priority, and we aim to ensure that this situation is handled swiftly. Please feel free to reply to this email or contact our customer service team at [Customer Service Phone Number] should you have any further questions or concerns.&lt;/p&gt;
-      &lt;p&gt;Thank you for being a valued customer.&lt;/p&gt;
-      &lt;p&gt;Best regards,&lt;br&gt;[Your Name]&lt;br&gt;[Your Position]&lt;br&gt;[Company Name]&lt;br&gt;[Contact Information]&lt;/p&gt;
-    &lt;/div&gt;
-    &lt;h2&gt;Escalation Report for Internal Review&lt;/h2&gt;
-    &lt;div&gt;
-      &lt;p&gt;&lt;strong&gt;Issue Summary:&lt;/strong&gt;&lt;br&gt;Customer has reported being charged twice for their monthly bill, which is causing concern and dissatisfaction. This falls under a high priority billing issue and requires immediate attention.&lt;/p&gt;
-      &lt;p&gt;&lt;strong&gt;Customer Information:&lt;/strong&gt;&lt;br&gt; - &lt;strong&gt;Name:&lt;/strong&gt; [Customer's Name]&lt;br&gt; - &lt;strong&gt;Contact Information:&lt;/strong&gt; [Contact Information]&lt;/p&gt;
-      &lt;p&gt;&lt;strong&gt;Details of the Issue:&lt;/strong&gt;&lt;br&gt;The customer has not specified the exact dates of the charges or the payment methods used for each charge in their initial inquiry. This lack of details makes it difficult to perform an immediate audit of the account without further information.&lt;/p&gt;
-      &lt;p&gt;&lt;strong&gt;Request for Further Information:&lt;/strong&gt;&lt;br&gt;To expedite the resolution process, the customer has been informed that they need to provide additional information:&lt;/p&gt;
-      &lt;ul&gt;
-        &lt;li&gt;The date of the charges&lt;/li&gt;
-        &lt;li&gt;The payment method used for each charge&lt;/li&gt;
-        &lt;li&gt;Any reference number associated with the transactions, if available&lt;/li&gt;
-      &lt;/ul&gt;
-      &lt;p&gt;&lt;strong&gt;Next Steps:&lt;/strong&gt;&lt;br&gt;1. &lt;strong&gt;Await Response:&lt;/strong&gt; We will need to wait for the customer to respond with the requested information.&lt;br&gt;2. &lt;strong&gt;Investigate Issue:&lt;/strong&gt; Once the information is received, the billing department will conduct a thorough review of the customer's account to confirm the duplicate charge.&lt;br&gt;3. &lt;strong&gt;Refund Process:&lt;/strong&gt; If a duplicate charge is confirmed, immediate action will be taken to issue a refund to the customer.&lt;/p&gt;
-      &lt;p&gt;&lt;strong&gt;Customer Communication:&lt;/strong&gt;&lt;br&gt;The customer has been reassured that their concern is being taken seriously, and appropriate measures will be implemented to resolve the issue swiftly. They have also been provided with contact options for any immediate inquiries.&lt;/p&gt;
-      &lt;p&gt;&lt;strong&gt;Priority Level:&lt;/strong&gt; High&lt;/p&gt;
-      &lt;p&gt;&lt;strong&gt;Escalation Notes Prepared By:&lt;/strong&gt;&lt;br&gt;[Your Name]&lt;br&gt;[Your Position]&lt;br&gt;[Date]&lt;br&gt;[Company Name]&lt;/p&gt;
-    &lt;/div&gt;
-  &lt;/body&gt;
-&lt;/html&gt;
-```</t>
+          <t>Email Sent</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>T0003</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Michael Brown</t>
+          <t>Michael Lee</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -615,90 +517,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>I can’t log into my account even after resetting the password.</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>```html
-&lt;!DOCTYPE html&gt;
-&lt;html lang="en"&gt;
-&lt;head&gt;
-    &lt;meta charset="UTF-8"&gt;
-    &lt;meta name="viewport" content="width=device-width, initial-scale=1.0"&gt;
-    &lt;title&gt;Assistance with Account Access&lt;/title&gt;
-&lt;/head&gt;
-&lt;body style="font-family: Arial, sans-serif; line-height: 1.6; color: #333;"&gt;
-    &lt;h2 style="color: #2C3E50;"&gt;Assistance with Account Access&lt;/h2&gt;
-    &lt;div&gt;
-        &lt;p&gt;Dear [Customer's Name],&lt;/p&gt;
-        &lt;p&gt;Thank you for reaching out to us regarding your account access issue. I understand how important it is for you to be able to log into your account, and I’m here to help.&lt;/p&gt;
-        &lt;p&gt;Since you’ve already attempted to reset your password without success, please follow these additional troubleshooting steps:&lt;/p&gt;
-        &lt;ol&gt;
-            &lt;li&gt;&lt;strong&gt;Clear Cache and Cookies:&lt;/strong&gt; Sometimes, stored data can interfere with the login process. Please clear your browser’s cache and cookies and attempt to log in again.&lt;/li&gt;
-            &lt;li&gt;&lt;strong&gt;Use Incognito Mode:&lt;/strong&gt; Try logging in using a private or incognito browsing window. This mode disables extensions and cached data, which might be causing the issue.&lt;/li&gt;
-            &lt;li&gt;&lt;strong&gt;Check Username/Email:&lt;/strong&gt; Ensure that you are entering the correct username or email address associated with your account.&lt;/li&gt;
-            &lt;li&gt;&lt;strong&gt;Disable VPN/Proxy:&lt;/strong&gt; If you're using a VPN or proxy, please disable it and try logging in again, as it may cause login issues.&lt;/li&gt;
-        &lt;/ol&gt;
-        &lt;p&gt;If you have gone through these steps and are still unable to access your account, please let us know. We can investigate further and assist you with resetting your account or any additional measures needed to regain access.&lt;/p&gt;
-        &lt;p&gt;Thank you for your patience, and I look forward to resolving this matter for you quickly.&lt;/p&gt;
-        &lt;p&gt;Best regards,&lt;br&gt;
-        [Your Name]&lt;br&gt;
-        [Your Job Title]&lt;br&gt;
-        [Your Company]&lt;br&gt;
-        [Your Contact Information]&lt;/p&gt;
-    &lt;/div&gt;
-    &lt;div style="margin-top: 30px; border-top: 1px solid #ddd; padding-top: 20px;"&gt;
-        &lt;h3 style="color: #2C3E50;"&gt;Escalation Notes for Internal Review&lt;/h3&gt;
-        &lt;p&gt;&lt;strong&gt;Ticket ID:&lt;/strong&gt; [Insert Ticket ID]&lt;/p&gt;
-        &lt;p&gt;&lt;strong&gt;Customer Name:&lt;/strong&gt; [Customer's Name]&lt;/p&gt;
-        &lt;p&gt;&lt;strong&gt;Issue Category:&lt;/strong&gt; Account Access&lt;/p&gt;
-        &lt;p&gt;&lt;strong&gt;Priority Level:&lt;/strong&gt; High&lt;/p&gt;
-        &lt;p&gt;&lt;strong&gt;Date Submitted:&lt;/strong&gt; [Insert Date]&lt;/p&gt;
-        &lt;p&gt;&lt;strong&gt;Initial Support Response:&lt;/strong&gt; The customer reported being unable to log into their account even after attempting to reset their password.&lt;/p&gt;
-        &lt;h4&gt;Summary of Customer Attempts:&lt;/h4&gt;
-        &lt;ul&gt;
-            &lt;li&gt;The customer has followed the password reset process but is still facing issues logging in.&lt;/li&gt;
-            &lt;li&gt;Additional troubleshooting steps suggested include:
-                &lt;ul&gt;
-                    &lt;li&gt;Clearing browser cache and cookies.&lt;/li&gt;
-                    &lt;li&gt;Using incognito mode for logging in.&lt;/li&gt;
-                    &lt;li&gt;Verifying username/email input for accuracy.&lt;/li&gt;
-                    &lt;li&gt;Disabling any VPN or proxy services.&lt;/li&gt;
-                &lt;/ul&gt;
-            &lt;/li&gt;
-        &lt;/ul&gt;
-        &lt;h4&gt;Next Steps Required:&lt;/h4&gt;
-        &lt;ul&gt;
-            &lt;li&gt;Further investigation is needed into the customer's account to diagnose potential issues not resolved by the initial troubleshooting steps.&lt;/li&gt;
-            &lt;li&gt;Consider whether additional measures, such as manual account reset or verification of account security settings, are necessary.&lt;/li&gt;
-        &lt;/ul&gt;
-        &lt;h4&gt;Recommended Actions for Escalation:&lt;/h4&gt;
-        &lt;ul&gt;
-            &lt;li&gt;Assign a dedicated support agent to follow up directly with the customer.&lt;/li&gt;
-            &lt;li&gt;Check if there are any known issues with account access or system outages that might be impacting the customer’s ability to log in.&lt;/li&gt;
-            &lt;li&gt;Ensure communication with the customer is prompt, demonstrating that their issue is being prioritized and taken seriously.&lt;/li&gt;
-        &lt;/ul&gt;
-        &lt;p&gt;Please expedite the investigation and keep the customer informed on the status of their account access resolution. Thank you for your attention to this high-priority matter.&lt;/p&gt;
-        &lt;p&gt;Best regards,&lt;br&gt;
-        [Your Name]&lt;br&gt;
-        [Your Job Title]&lt;br&gt;
-        [Your Company]&lt;br&gt;
-        [Your Contact Information]&lt;/p&gt;
-    &lt;/div&gt;
-&lt;/body&gt;
-&lt;/html&gt;
-```</t>
+          <t>Email Sent</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>T0004</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Emily Davis</t>
+          <t>Sophia Davis</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -708,76 +539,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>My router keeps rebooting every few minutes.</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>```html
-&lt;html&gt;
-    &lt;body&gt;
-        &lt;h2&gt;Support Ticket Update&lt;/h2&gt;
-        &lt;div&gt;
-            &lt;p&gt;Dear [Customer's Name],&lt;/p&gt;
-            &lt;p&gt;Thank you for reaching out regarding the issue you're experiencing with your router rebooting every few minutes. I understand how frustrating this can be, and I’m here to help you resolve it as quickly as possible.&lt;/p&gt;
-            &lt;p&gt;Based on your description, the frequent reboots can be caused by a variety of factors, including overheating, software issues, or a faulty power supply. Here are some steps we can take to troubleshoot the issue:&lt;/p&gt;
-            &lt;ol&gt;
-                &lt;li&gt;&lt;strong&gt;Check Placement:&lt;/strong&gt; Ensure that your router is placed in a well-ventilated area to prevent overheating. Avoid placing it in enclosed spaces or near heat sources.&lt;/li&gt;
-                &lt;li&gt;&lt;strong&gt;Inspect Cables and Power Supply:&lt;/strong&gt; Make sure that all cables connected to the router, including the power cable, are secured and undamaged. If you have access to another compatible power adapter, you may want to try using it to see if the problem persists.&lt;/li&gt;
-                &lt;li&gt;&lt;strong&gt;Firmware Update:&lt;/strong&gt; Check if your router’s firmware is up to date. You can usually do this by accessing the router’s admin interface. If an update is available, please install it.&lt;/li&gt;
-                &lt;li&gt;&lt;strong&gt;Factory Reset:&lt;/strong&gt; If the issue continues, consider performing a factory reset on the router. Please note that this will restore the router to its original settings, so be sure to back up any custom configurations prior to doing this.&lt;/li&gt;
-                &lt;li&gt;&lt;strong&gt;Testing:&lt;/strong&gt; If possible, try connecting a different device to the router to determine whether it’s the router or the connected device causing the issue.&lt;/li&gt;
-            &lt;/ol&gt;
-            &lt;p&gt;If you have gone through these steps and the problem still exists, we may need to look into a replacement option depending on your warranty status. Please let us know how it goes after trying these suggestions, or if you need further assistance.&lt;/p&gt;
-            &lt;p&gt;We appreciate your patience as we work to resolve this matter swiftly.&lt;/p&gt;
-            &lt;br&gt;
-            &lt;p&gt;Best regards,&lt;/p&gt;
-            &lt;p&gt;[Your Name]&lt;br&gt;
-            [Your Position]&lt;br&gt;
-            [Your Company]&lt;br&gt;
-            [Your Contact Information]&lt;/p&gt;
-        &lt;/div&gt;
-        &lt;h2&gt;Escalation Notes for Internal Review&lt;/h2&gt;
-        &lt;div&gt;
-            &lt;p&gt;&lt;strong&gt;Customer Name:&lt;/strong&gt; [Customer's Name]&lt;/p&gt;
-            &lt;p&gt;&lt;strong&gt;Ticket ID:&lt;/strong&gt; [Ticket ID]&lt;/p&gt;
-            &lt;p&gt;&lt;strong&gt;Category:&lt;/strong&gt; Router Issues&lt;/p&gt;
-            &lt;p&gt;&lt;strong&gt;Priority Level:&lt;/strong&gt; High&lt;/p&gt;
-            &lt;p&gt;&lt;strong&gt;Date of Submission:&lt;/strong&gt; [Date]&lt;/p&gt;
-            &lt;h3&gt;Issue Summary:&lt;/h3&gt;
-            &lt;p&gt;Customer has reported that their router is rebooting every few minutes, causing significant disruption to service. This is classified as a high priority due to its ongoing impact on the customer’s ability to maintain internet connectivity.&lt;/p&gt;
-            &lt;h3&gt;Troubleshooting Steps Taken:&lt;/h3&gt;
-            &lt;ol&gt;
-                &lt;li&gt;&lt;strong&gt;Check Placement:&lt;/strong&gt; Advised customer to ensure proper ventilation around the router to prevent overheating.&lt;/li&gt;
-                &lt;li&gt;&lt;strong&gt;Inspect Cables and Power Supply:&lt;/strong&gt; Suggested checking all cables for damage and potentially replacing the power adapter if available.&lt;/li&gt;
-                &lt;li&gt;&lt;strong&gt;Firmware Update:&lt;/strong&gt; Instructed customer to check for and install any available firmware updates via the router's admin interface.&lt;/li&gt;
-                &lt;li&gt;&lt;strong&gt;Factory Reset:&lt;/strong&gt; Recommended performing a factory reset of the router, highlighting the need for a backup of settings.&lt;/li&gt;
-                &lt;li&gt;&lt;strong&gt;Testing:&lt;/strong&gt; Proposed connecting a different device to determine whether the issue lies with the router or the connected device.&lt;/li&gt;
-            &lt;/ol&gt;
-            &lt;h3&gt;Next Steps Required:&lt;/h3&gt;
-            &lt;ul&gt;
-                &lt;li&gt;Await feedback from the customer on the effectiveness of the above troubleshooting steps.&lt;/li&gt;
-                &lt;li&gt;If issues persist after these efforts, recommend investigating warranty coverage for potential replacement of the router.&lt;/li&gt;
-            &lt;/ul&gt;
-            &lt;h3&gt;Additional Notes:&lt;/h3&gt;
-            &lt;p&gt;The frequency of reboots could indicate a hardware issue, especially if the power supply and firmware checks do not resolve the problem.&lt;/p&gt;
-            &lt;p&gt;Follow-up with the customer within 48 hours to ensure they have the support they need moving forward.&lt;/p&gt;
-            &lt;p&gt;&lt;strong&gt;Agent Assigned:&lt;/strong&gt; [Your Name]&lt;/p&gt;
-            &lt;p&gt;&lt;strong&gt;Contact Information for Follow-Up:&lt;/strong&gt; [Your Contact Information]&lt;/p&gt;
-        &lt;/div&gt;
-    &lt;/body&gt;
-&lt;/html&gt;
-```</t>
+          <t>Email Sent</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>T0005</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Robert King</t>
+          <t>Daniel Wilson</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -787,60 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>I requested a plan upgrade last week but nothing changed.</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>```html
-&lt;html&gt;
-  &lt;body&gt;
-    &lt;h2&gt;Follow-Up on Your Plan Upgrade Request&lt;/h2&gt;
-    &lt;div&gt;
-      &lt;p&gt;Dear [Customer's Name],&lt;/p&gt;
-      &lt;p&gt;Thank you for reaching out to us regarding your recent request for a plan upgrade. We apologize for any inconvenience caused by the delay in processing your request.&lt;/p&gt;
-      &lt;p&gt;I have looked into your account and can confirm that your plan upgrade request was received last week. However, it appears that there was a processing error that has prevented the change from being implemented. I sincerely apologize for this oversight and any frustration it may have caused.&lt;/p&gt;
-      &lt;p&gt;To rectify this, I will prioritize your request and ensure that the upgrade is processed immediately. You can expect to see the changes reflected in your account within the next [insert specific time frame, e.g., 24-48 hours]. Additionally, I will keep you updated on the progress.&lt;/p&gt;
-      &lt;p&gt;If you have any further questions or need assistance with anything else, please feel free to reach out. We truly value your business and appreciate your patience as we resolve this matter.&lt;/p&gt;
-      &lt;p&gt;Thank you for your understanding.&lt;/p&gt;
-      &lt;p&gt;Best regards,&lt;br&gt;[Your Name]&lt;br&gt;[Your Position]&lt;br&gt;[Your Company]&lt;br&gt;[Your Contact Information]&lt;/p&gt;
-    &lt;/div&gt;
-    &lt;h3&gt;Escalation Notes for Internal Review&lt;/h3&gt;
-    &lt;div&gt;
-      &lt;p&gt;&lt;strong&gt;Category:&lt;/strong&gt; Account Management&lt;/p&gt;
-      &lt;p&gt;&lt;strong&gt;Priority Level:&lt;/strong&gt; High&lt;/p&gt;
-      &lt;p&gt;&lt;strong&gt;Customer Name:&lt;/strong&gt; [Customer's Name]&lt;/p&gt;
-      &lt;p&gt;&lt;strong&gt;Subject of Ticket:&lt;/strong&gt; Follow-Up on Your Plan Upgrade Request&lt;/p&gt;
-      &lt;p&gt;&lt;strong&gt;Received Date:&lt;/strong&gt; [insert date of ticket submission]&lt;/p&gt;
-      &lt;p&gt;&lt;strong&gt;Original Request:&lt;/strong&gt; The customer requested a plan upgrade last week but reported that no changes have occurred.&lt;/p&gt;
-      &lt;h4&gt;Issue Summary:&lt;/h4&gt;
-      &lt;ul&gt;
-        &lt;li&gt;The customer has not seen any updates regarding their plan upgrade request submitted last week, which raises concerns about the processing efficiency within our system.&lt;/li&gt;
-        &lt;li&gt;Investigation revealed that the upgrade request encountered a processing error, which resulted in no changes being implemented in the customer’s account.&lt;/li&gt;
-      &lt;/ul&gt;
-      &lt;h4&gt;Actions Taken:&lt;/h4&gt;
-      &lt;ul&gt;
-        &lt;li&gt;Apologized to the customer for the inconvenience caused by the delay and the oversight in processing their request.&lt;/li&gt;
-        &lt;li&gt;Confirmed receipt of the original upgrade request.&lt;/li&gt;
-        &lt;li&gt;Prioritized the customer's request to ensure immediate processing of the upgrade.&lt;/li&gt;
-        &lt;li&gt;Assured the customer that they would see the changes reflected in their account within the next [insert specific time frame, e.g., 24-48 hours].&lt;/li&gt;
-        &lt;li&gt;Committed to keeping the customer informed throughout the resolution process.&lt;/li&gt;
-      &lt;/ul&gt;
-      &lt;h4&gt;Next Steps:&lt;/h4&gt;
-      &lt;ul&gt;
-        &lt;li&gt;Monitor the processing of the upgrade to ensure it is completed as promised and within the specified timeframe.&lt;/li&gt;
-        &lt;li&gt;Follow up with the customer once the upgrade has been successfully processed to confirm satisfaction and address any further queries.&lt;/li&gt;
-      &lt;/ul&gt;
-      &lt;h4&gt;Additional Notes:&lt;/h4&gt;
-      &lt;ul&gt;
-        &lt;li&gt;Considering the high priority of this ticket and the potential impact on customer satisfaction, it is essential to resolve this issue promptly.&lt;/li&gt;
-        &lt;li&gt;Ensure thorough checks in our system to prevent similar issues in the future.&lt;/li&gt;
-      &lt;/ul&gt;
-      &lt;p&gt;Thank you for your attention to this matter.&lt;br&gt;[Your Name]&lt;br&gt;[Your Position]&lt;br&gt;[Your Company]&lt;br&gt;[Your Contact Information]&lt;/p&gt;
-    &lt;/div&gt;
-  &lt;/body&gt;
-&lt;/html&gt;
-```</t>
+          <t>Email Sent</t>
         </is>
       </c>
     </row>
